--- a/GP05MOAS-PG515/Omaha_Cal_Info_GP05MOAS-PG515_00001.xlsx
+++ b/GP05MOAS-PG515/Omaha_Cal_Info_GP05MOAS-PG515_00001.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\Ingest sheets\ingestion-csvs\GP05MOAS-PG515\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="60" yWindow="7980" windowWidth="25040" windowHeight="11580" tabRatio="377"/>
+    <workbookView xWindow="60" yWindow="7980" windowWidth="25035" windowHeight="11580" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -30,7 +35,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$79</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$386</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>Ref Des</t>
   </si>
@@ -82,9 +87,6 @@
   </si>
   <si>
     <t>Deployment Number</t>
-  </si>
-  <si>
-    <t>1000 m</t>
   </si>
   <si>
     <t>Mooring Serial Number</t>
@@ -611,6 +613,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -658,7 +663,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -693,7 +698,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -904,20 +909,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5" customWidth="1"/>
-    <col min="2" max="3" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="8" width="19" customWidth="1"/>
-    <col min="9" max="10" width="13.1640625" customWidth="1"/>
-    <col min="11" max="11" width="29.1640625" customWidth="1"/>
-    <col min="12" max="12" width="17.83203125" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" customWidth="1"/>
+    <col min="9" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="29.140625" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30">
+    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -952,9 +959,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="7" customFormat="1" ht="15">
+    <row r="2" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="9">
         <v>515</v>
@@ -970,19 +977,19 @@
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="I2" s="9">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="L2" s="23">
         <f>((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
@@ -993,7 +1000,7 @@
         <v>-144.5446</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
@@ -1010,27 +1017,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5" customWidth="1"/>
-    <col min="6" max="6" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15">
+    <row r="1" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>13</v>
@@ -1045,9 +1054,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1">
+    <row r="2" spans="1:15" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="22">
         <v>515</v>
@@ -1061,7 +1070,7 @@
       <c r="E2" s="13"/>
       <c r="F2" s="14"/>
       <c r="G2" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -1069,7 +1078,7 @@
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1">
+    <row r="3" spans="1:15" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -1083,9 +1092,9 @@
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1">
+    <row r="4" spans="1:15" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="22">
         <v>515</v>
@@ -1097,22 +1106,22 @@
         <v>3501</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="39">
         <v>124</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
     </row>
-    <row r="5" spans="1:12" s="5" customFormat="1">
+    <row r="5" spans="1:15" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="30">
         <v>515</v>
@@ -1124,13 +1133,13 @@
         <v>3501</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="34">
         <v>700</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="35"/>
       <c r="I5" s="13"/>
@@ -1138,9 +1147,9 @@
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="1:12" s="5" customFormat="1">
+    <row r="6" spans="1:15" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="30">
         <v>515</v>
@@ -1152,13 +1161,13 @@
         <v>3501</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="40">
         <v>1.0760000000000001</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="35"/>
       <c r="I6" s="13"/>
@@ -1166,9 +1175,9 @@
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="1:12" s="5" customFormat="1">
+    <row r="7" spans="1:15" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="30">
         <v>515</v>
@@ -1180,13 +1189,13 @@
         <v>3501</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="36">
         <v>3.9E-2</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" s="35"/>
       <c r="I7" s="13"/>
@@ -1194,7 +1203,7 @@
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:12" s="5" customFormat="1">
+    <row r="8" spans="1:15" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="25"/>
       <c r="B8" s="26"/>
       <c r="C8" s="15"/>
@@ -1208,157 +1217,148 @@
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1">
-      <c r="A9" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="22">
+    <row r="9" spans="1:15" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G9" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="22">
         <v>515</v>
       </c>
-      <c r="C9" s="15">
+      <c r="I9" s="15">
         <v>1</v>
       </c>
-      <c r="D9" s="15">
+      <c r="J9" s="15">
         <v>1239</v>
       </c>
-      <c r="E9" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="38">
+      <c r="K9" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="38">
         <v>650</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:12" s="5" customFormat="1">
-      <c r="A10" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="30">
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+    </row>
+    <row r="10" spans="1:15" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G10" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="30">
         <v>515</v>
       </c>
-      <c r="C10" s="31">
+      <c r="I10" s="31">
         <v>1</v>
       </c>
-      <c r="D10" s="31">
+      <c r="J10" s="31">
         <v>1239</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="K10" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="38">
+        <v>532</v>
+      </c>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+    </row>
+    <row r="11" spans="1:15" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G11" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="30">
+        <v>515</v>
+      </c>
+      <c r="I11" s="31">
+        <v>1</v>
+      </c>
+      <c r="J11" s="31">
+        <v>1239</v>
+      </c>
+      <c r="K11" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="38">
-        <v>532</v>
-      </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:12" s="5" customFormat="1">
-      <c r="A11" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="30">
+      <c r="L11" s="38">
+        <v>470</v>
+      </c>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+    </row>
+    <row r="12" spans="1:15" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G12" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="30">
         <v>515</v>
       </c>
-      <c r="C11" s="31">
+      <c r="I12" s="31">
         <v>1</v>
       </c>
-      <c r="D11" s="31">
+      <c r="J12" s="31">
         <v>1239</v>
       </c>
-      <c r="E11" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="38">
-        <v>470</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:12" s="5" customFormat="1">
-      <c r="A12" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="30">
+      <c r="K12" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="39">
+        <v>124</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="35"/>
+      <c r="O12" s="13"/>
+    </row>
+    <row r="13" spans="1:15" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G13" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="30">
         <v>515</v>
       </c>
-      <c r="C12" s="31">
+      <c r="I13" s="31">
         <v>1</v>
       </c>
-      <c r="D12" s="31">
+      <c r="J13" s="31">
         <v>1239</v>
       </c>
-      <c r="E12" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="39">
-        <v>124</v>
-      </c>
-      <c r="G12" s="13" t="s">
+      <c r="K13" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-    </row>
-    <row r="13" spans="1:12" s="5" customFormat="1">
-      <c r="A13" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="30">
+      <c r="L13" s="40">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="35"/>
+      <c r="O13" s="13"/>
+    </row>
+    <row r="14" spans="1:15" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G14" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="30">
         <v>515</v>
       </c>
-      <c r="C13" s="31">
+      <c r="I14" s="31">
         <v>1</v>
       </c>
-      <c r="D13" s="31">
+      <c r="J14" s="31">
         <v>1239</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="K14" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="40">
-        <v>1.0760000000000001</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="35"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-    </row>
-    <row r="14" spans="1:12" s="5" customFormat="1">
-      <c r="A14" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="30">
-        <v>515</v>
-      </c>
-      <c r="C14" s="31">
-        <v>1</v>
-      </c>
-      <c r="D14" s="31">
-        <v>1239</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="36">
+      <c r="L14" s="36">
         <v>3.9E-2</v>
       </c>
-      <c r="G14" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-    </row>
-    <row r="15" spans="1:12" s="5" customFormat="1">
+      <c r="M14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" s="35"/>
+      <c r="O14" s="13"/>
+    </row>
+    <row r="15" spans="1:15" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="22"/>
       <c r="C15" s="15"/>
@@ -1372,9 +1372,9 @@
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
     </row>
-    <row r="16" spans="1:12" s="5" customFormat="1">
+    <row r="16" spans="1:15" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="22">
         <v>515</v>
@@ -1388,10 +1388,10 @@
       <c r="E16" s="16"/>
       <c r="F16" s="24"/>
       <c r="G16" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="5" customFormat="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="22"/>
       <c r="C17" s="15"/>
@@ -1405,9 +1405,9 @@
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
     </row>
-    <row r="18" spans="1:12" s="5" customFormat="1">
+    <row r="18" spans="1:12" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="22">
         <v>515</v>
@@ -1421,7 +1421,7 @@
       <c r="E18" s="13"/>
       <c r="F18" s="14"/>
       <c r="G18" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -1429,7 +1429,7 @@
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="1:12" s="5" customFormat="1">
+    <row r="19" spans="1:12" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
